--- a/testdata/Login.xlsx
+++ b/testdata/Login.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sameer\Title21Automation\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView windowHeight="5970" windowWidth="15540" xWindow="0" yWindow="0"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L17"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,13 +32,13 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Invalid password</t>
-  </si>
-  <si>
     <t>administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid </t>
+    <t>Test Invalid password</t>
+  </si>
+  <si>
+    <t>Test valid password</t>
   </si>
 </sst>
 </file>
@@ -372,17 +376,25 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -390,31 +402,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/testdata/Login.xlsx
+++ b/testdata/Login.xlsx
@@ -385,13 +385,13 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/testdata/Login.xlsx
+++ b/testdata/Login.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sameer\Title21Automation\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neosoft\git\Title21Automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="5970" windowWidth="15540" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="5835" windowWidth="6285" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="GroupDetails" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sysadmin</t>
   </si>
@@ -39,6 +40,18 @@
   </si>
   <si>
     <t>Test valid password</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Test123</t>
   </si>
 </sst>
 </file>
@@ -375,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,4 +447,35 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testdata/Login.xlsx
+++ b/testdata/Login.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neosoft\git\Title21Automation\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sameer\Title21Automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5835" windowWidth="6285" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="5970" windowWidth="15540" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="GroupDetails" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,12 +23,360 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>sysadmin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>Test Invalid password</t>
+  </si>
+  <si>
+    <t>Test valid password</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87,35 +434,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>